--- a/src/analysis_examples/circadb/results_jtk/cosinor_10595856_slc25a36_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10595856_slc25a36_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2939037728364573, 0.40978880098759374]</t>
+          <t>[0.293696161936719, 0.40999641188733205]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.825806255657426e-11</v>
+        <v>3.020761418781603e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.825806255657426e-11</v>
+        <v>3.020761418781603e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5031579825569237</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4659499424398257, 0.5265595881301137]</t>
+          <t>[0.4659564245260521, 0.5265531060438873]</t>
         </is>
       </c>
       <c r="U2" t="n">
